--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\B103TestNGProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25D333-602D-4690-932B-D5F7FA9A8049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7E2F9-7A4E-416B-839F-0E4C06224728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60024798-9747-483D-8EAE-D0FC047AA4B4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>USERNAME</t>
   </si>
@@ -36,9 +36,6 @@
     <t>sam.walker@bluerentalcars.com</t>
   </si>
   <si>
-    <t>kate.brown@bluerentalcars.com</t>
-  </si>
-  <si>
     <t>pam.raymond@bluerentalcars.com</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>c!fas_art</t>
-  </si>
-  <si>
-    <t>tad1$Fas</t>
   </si>
   <si>
     <t>v7Hg_va^</t>
@@ -111,13 +105,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,92 +429,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A552B-1D90-4ECB-8EF9-15BC344AAE46}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B8588AE9-31FA-4F40-B403-CFF9AD24A73D}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{83F46478-44FC-4AA1-820A-96FD77902779}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{8BD80873-4E95-4C47-98E6-A8168991174F}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{36CA097A-4EC1-4F73-AEDA-5C6AB58239AF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8BD80873-4E95-4C47-98E6-A8168991174F}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{36CA097A-4EC1-4F73-AEDA-5C6AB58239AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\B103TestNGProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7E2F9-7A4E-416B-839F-0E4C06224728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDFB284-C144-4239-A7D7-6F611470E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60024798-9747-483D-8EAE-D0FC047AA4B4}"/>
   </bookViews>
@@ -105,13 +105,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,58 +432,58 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
